--- a/processing/final/throughput_writes/throughput_writes.xlsx
+++ b/processing/final/throughput_writes/throughput_writes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33420" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="-37320" yWindow="440" windowWidth="34720" windowHeight="20100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>THROUGHPUT_WRITES</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>Std Latency across reps (mw)</t>
   </si>
+  <si>
+    <t>Total clients</t>
+  </si>
 </sst>
 </file>
 
@@ -149,6 +152,7052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$J$5:$J$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>83.7315510675</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>118.81918852</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>127.898422949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>103.224987435</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>114.445221405</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>87.36876425219999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>108.587931194</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>113.549396613</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>97.1519275611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$J$5:$J$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>83.7315510675</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>118.81918852</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>127.898422949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>103.224987435</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>114.445221405</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>87.36876425219999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>108.587931194</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>113.549396613</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>97.1519275611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3714.35833333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5998.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6218.02083333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6207.66666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6212.94583333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6198.5375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6217.82083333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6202.59166667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6155.1375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$J$14:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>74.9447503953</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>145.840731518</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>225.296528738</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>175.762235461</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>202.238292235</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>206.181064855</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>229.912360237</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>206.181282292</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>234.370461644</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$J$14:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>74.9447503953</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>145.840731518</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>225.296528738</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>175.762235461</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>202.238292235</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>206.181064855</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>229.912360237</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>206.181282292</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>234.370461644</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$I$14:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3621.56666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6814.50416667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9249.22083333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10412.3041667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10259.3041667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10320.5833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10164.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10287.2916667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10623.7583333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$J$23:$J$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>72.0364046893</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>139.908895161</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>210.932095912</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>190.332177611</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>218.703049251</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>250.200381544</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>208.495081134</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>199.141790195</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>252.2653956</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$J$23:$J$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>72.0364046893</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>139.908895161</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>210.932095912</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>190.332177611</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>218.703049251</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>250.200381544</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>208.495081134</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>199.141790195</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>252.2653956</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$I$23:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3725.71666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7082.29166667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10030.7833333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12332.6166667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12871.1791667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12993.2708333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13032.9291667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13175.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12834.4166667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$J$32:$J$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>80.4688658988</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>171.091056548</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>174.971309684</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>224.991353756</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>286.654294577</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>291.9640384</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>252.225252062</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>266.112852893</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>245.590317237</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$J$32:$J$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>80.4688658988</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>171.091056548</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>174.971309684</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>224.991353756</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>286.654294577</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>291.9640384</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>252.225252062</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>266.112852893</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>245.590317237</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$I$32:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3712.54583333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000.02916667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9851.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12849.0208333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13445.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13990.4333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14844.5166667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15243.5125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15421.1375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46556656"/>
+        <c:axId val="-308718576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46556656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of clients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-308718576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-308718576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (ops/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46556656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$L$5:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0588796642605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0663276217727</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.148188090535</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.250765259293</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.442139645616</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.454236231843</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.698114444689</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.895154205039</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.907971361551</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$L$5:$L$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0588796642605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0663276217727</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.148188090535</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.250765259293</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.442139645616</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.454236231843</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.698114444689</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.895154205039</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.907971361551</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.49159352083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1186719375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.73975804167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.44275725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.1058939375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.8206174167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.4390856875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.2003448958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.3033161667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$L$14:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0554391402702</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0608633607354</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0933733122312</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.128638256819</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.244472211879</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.35046462819</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.489561641397</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.495595767782</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.688911680427</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$L$14:$L$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0554391402702</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0608633607354</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0933733122312</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.128638256819</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.244472211879</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.35046462819</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.489561641397</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.495595767782</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.688911680427</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$14:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.57178091667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.65230570833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8815321875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.926213375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6159234167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.1959531042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.0199210417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.454890875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.2314897083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$L$23:$L$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0511027887924</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0565265730969</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0749366741735</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.121803575693</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.219816465013</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.285294693121</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.325942427752</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.34177879939</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.534768881118</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$L$23:$L$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0511027887924</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0565265730969</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0749366741735</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.121803575693</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.219816465013</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.285294693121</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.325942427752</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.34177879939</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.534768881118</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$23:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.48016747917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5693213125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.52173516667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.67307922917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.92495627083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4840380833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.1345910208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.4379732083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.6092040625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$L$32:$L$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0538238035192</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0676785401994</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0621373003263</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12336820982</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.208398727695</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.299025475821</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.218773522767</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.313679016755</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.283471271793</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$L$32:$L$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0538238035192</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0676785401994</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0621373003263</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12336820982</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.208398727695</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.299025475821</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.218773522767</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.313679016755</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.283471271793</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$32:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.47944489583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59355391667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.57174379167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.480394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5437155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5771571875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.7677236458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.6767473125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.7110465625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="50240320"/>
+        <c:axId val="121304976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50240320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of clients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121304976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121304976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50240320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Queue length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$N$5:$N$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.268275408482</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.632233110528</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.32549781005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.17095166977</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.28413997335</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.33490808904</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.61783827006</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.17657038131</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.12951508396</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$N$5:$N$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.268275408482</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.632233110528</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.32549781005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.17095166977</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.28413997335</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.33490808904</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.61783827006</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.17657038131</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.12951508396</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$5:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.177083333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.3104166667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.1583333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.1708333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.94375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.047916667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$N$14:$N$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.233369120221</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.499256655597</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.41062717346</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.82126349089</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.14871559941</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.91690857949</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.20199612167</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.16697092963</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.96128133438</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$N$14:$N$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.233369120221</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.499256655597</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.41062717346</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.82126349089</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.14871559941</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.91690857949</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.20199612167</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.16697092963</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.96128133438</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$14:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.160416666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.472916666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.44791666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6791666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.5104166667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.6520833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.4625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.3125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.258333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$N$23:$N$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.254218971584</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.443894152117</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.20873520161</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.75489511263</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.81060958758</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.65646677655</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.85733405601</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.45972561958</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.20079640078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$N$23:$N$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.254218971584</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.443894152117</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.20873520161</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.75489511263</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.81060958758</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.65646677655</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.85733405601</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.45972561958</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.20079640078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$23:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.31666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.71458333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.9583333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.7791666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.7458333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.28125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$N$32:$N$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.182658424003</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.630531081268</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.17641347487</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.30940515006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.37726311554</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.32605333651</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.05518910729</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.35128622966</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.94188707205</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$N$32:$N$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.182658424003</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.630531081268</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.17641347487</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.30940515006</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.37726311554</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.32605333651</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.05518910729</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.35128622966</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.94188707205</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.160416666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.489583333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.45416666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.38958333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.79375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.1854166667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.8333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.4895833333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46599360"/>
+        <c:axId val="90998384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46599360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of clients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90998384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90998384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queue length (requests)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46599360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average server times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$R$5:$R$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0524371648113</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0431131143168</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0548961482134</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0430325563278</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0505187251987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.039352363553</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0481798532181</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0508464670659</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0440230605876</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$R$5:$R$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0524371648113</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0431131143168</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0548961482134</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0430325563278</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0505187251987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.039352363553</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0481798532181</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0508464670659</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0440230605876</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$Q$5:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.37647245833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.46100085417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.52598804167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.53346966667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53149991667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5334413125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.53015222917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.53402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.55431389583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$R$14:$R$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0490713838605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0495344501184</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0675328599955</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0527550409097</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0595912205204</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0634024097491</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0679111232664</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0587341992241</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0706334099939</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$R$14:$R$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0490713838605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0495344501184</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0675328599955</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0527550409097</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0595912205204</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0634024097491</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0679111232664</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0587341992241</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0706334099939</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$Q$14:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.45389758333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4875038125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.11257445833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01297502083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04829979167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.03921564583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0725118125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.04554022917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.96231097917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$R$23:$R$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0447913851047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0461998024694</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0647235312456</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0743187648715</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0860195677359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0911257498276</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0810626872574</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0786962833406</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1060621038</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$R$23:$R$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0447913851047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0461998024694</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0647235312456</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0743187648715</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0860195677359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0911257498276</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0810626872574</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0786962833406</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1060621038</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$Q$23:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.36053841667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.412414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.22430379167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.50728908333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.86602260417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8455894375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.84267572917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.78163227083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.89397291667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$R$32:$R$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0468238578401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0546705245847</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0502775881601</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.108657580039</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.195464298379</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.200558860067</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.135675709613</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.130144449677</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.114216605804</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$R$32:$R$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0468238578401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0546705245847</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0502775881601</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.108657580039</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.195464298379</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.200558860067</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.135675709613</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.130144449677</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.114216605804</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$45:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$Q$32:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.35684872917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.43220914583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.268033125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80473097917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.12417170833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.28825372917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.951023375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.13885154167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.16747252083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120763184"/>
+        <c:axId val="90645360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="120763184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of clients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90645360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90645360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Server</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120763184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,10 +7463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="Z22" workbookViewId="0">
+      <selection activeCell="AR55" sqref="AR55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,10 +7585,10 @@
         <v>5.8879664260500002E-2</v>
       </c>
       <c r="M5">
-        <v>1.7708333333300001E-4</v>
+        <v>0.177083333333</v>
       </c>
       <c r="N5">
-        <v>2.6827540848200002E-4</v>
+        <v>0.26827540848199999</v>
       </c>
       <c r="O5">
         <v>8.8687562499999997E-2</v>
@@ -607,10 +7656,10 @@
         <v>6.6327621772700004E-2</v>
       </c>
       <c r="M6">
-        <v>2.0500000000000002E-3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N6">
-        <v>6.32233110528E-4</v>
+        <v>0.63223311052800002</v>
       </c>
       <c r="O6">
         <v>0.63114060416700002</v>
@@ -678,10 +7727,10 @@
         <v>0.14818809053500001</v>
       </c>
       <c r="M7">
-        <v>1.2937499999999999E-2</v>
+        <v>12.9375</v>
       </c>
       <c r="N7">
-        <v>1.3254978100500001E-3</v>
+        <v>1.3254978100499999</v>
       </c>
       <c r="O7">
         <v>4.1884177500000002</v>
@@ -749,10 +7798,10 @@
         <v>0.25076525929299998</v>
       </c>
       <c r="M8">
-        <v>3.73104166667E-2</v>
+        <v>37.3104166667</v>
       </c>
       <c r="N8">
-        <v>1.17095166977E-3</v>
+        <v>1.17095166977</v>
       </c>
       <c r="O8">
         <v>11.8831908542</v>
@@ -820,10 +7869,10 @@
         <v>0.442139645616</v>
       </c>
       <c r="M9">
-        <v>6.1158333333300001E-2</v>
+        <v>61.1583333333</v>
       </c>
       <c r="N9">
-        <v>1.2841399733500001E-3</v>
+        <v>1.2841399733500001</v>
       </c>
       <c r="O9">
         <v>19.5478309792</v>
@@ -891,10 +7940,10 @@
         <v>0.45423623184299999</v>
       </c>
       <c r="M10">
-        <v>8.51708333333E-2</v>
+        <v>85.170833333299996</v>
       </c>
       <c r="N10">
-        <v>1.3349080890400001E-3</v>
+        <v>1.33490808904</v>
       </c>
       <c r="O10">
         <v>27.260691145799999</v>
@@ -962,10 +8011,10 @@
         <v>0.69811444468899997</v>
       </c>
       <c r="M11">
-        <v>0.10894375000000001</v>
+        <v>108.94374999999999</v>
       </c>
       <c r="N11">
-        <v>1.6178382700600001E-3</v>
+        <v>1.61783827006</v>
       </c>
       <c r="O11">
         <v>34.882585770799999</v>
@@ -1033,10 +8082,10 @@
         <v>0.89515420503900001</v>
       </c>
       <c r="M12">
-        <v>0.13287499999999999</v>
+        <v>132.875</v>
       </c>
       <c r="N12">
-        <v>1.1765703813099999E-3</v>
+        <v>1.1765703813099999</v>
       </c>
       <c r="O12">
         <v>42.639783375</v>
@@ -1104,10 +8153,10 @@
         <v>0.907971361551</v>
       </c>
       <c r="M13">
-        <v>0.15704791666699999</v>
+        <v>157.04791666700001</v>
       </c>
       <c r="N13">
-        <v>1.12951508396E-3</v>
+        <v>1.1295150839600001</v>
       </c>
       <c r="O13">
         <v>50.722806937500003</v>
@@ -1175,10 +8224,10 @@
         <v>5.5439140270199999E-2</v>
       </c>
       <c r="M14">
-        <v>1.6041666666700001E-4</v>
+        <v>0.160416666667</v>
       </c>
       <c r="N14">
-        <v>2.3336912022099999E-4</v>
+        <v>0.23336912022100001</v>
       </c>
       <c r="O14">
         <v>8.9935291666700001E-2</v>
@@ -1234,34 +8283,34 @@
         <v>0.19564047671900001</v>
       </c>
       <c r="I15">
-        <v>6648.5208333299997</v>
+        <v>6814.5041666699999</v>
       </c>
       <c r="J15">
-        <v>343.55583648300001</v>
+        <v>145.84073151800001</v>
       </c>
       <c r="K15">
-        <v>2.9376502477500002</v>
+        <v>2.6523057083300001</v>
       </c>
       <c r="L15">
-        <v>2.2489392383800002</v>
+        <v>6.0863360735400003E-2</v>
       </c>
       <c r="M15">
-        <v>4.8125000000000002E-4</v>
+        <v>0.472916666667</v>
       </c>
       <c r="N15">
-        <v>4.7363227470899999E-4</v>
+        <v>0.499256655597</v>
       </c>
       <c r="O15">
-        <v>0.137681081081</v>
+        <v>0.135725208333</v>
       </c>
       <c r="P15">
-        <v>1.54567686957E-2</v>
+        <v>1.59045261636E-2</v>
       </c>
       <c r="Q15">
-        <v>2.7706232207200001</v>
+        <v>2.4875038125</v>
       </c>
       <c r="R15">
-        <v>2.2487062581899999</v>
+        <v>4.9534450118399999E-2</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1273,10 +8322,10 @@
         <v>7.1305218888600003E-2</v>
       </c>
       <c r="W15">
-        <v>256.37871960199999</v>
+        <v>119.548370397</v>
       </c>
       <c r="X15">
-        <v>0.46979777747700002</v>
+        <v>4.8845783309400002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1317,10 +8366,10 @@
         <v>9.3373312231200004E-2</v>
       </c>
       <c r="M16">
-        <v>3.4479166666700001E-3</v>
+        <v>3.4479166666699999</v>
       </c>
       <c r="N16">
-        <v>1.4106271734600001E-3</v>
+        <v>1.41062717346</v>
       </c>
       <c r="O16">
         <v>0.73476383333299999</v>
@@ -1388,10 +8437,10 @@
         <v>0.12863825681900001</v>
       </c>
       <c r="M17">
-        <v>2.5679166666700001E-2</v>
+        <v>25.679166666699999</v>
       </c>
       <c r="N17">
-        <v>1.8212634908899999E-3</v>
+        <v>1.8212634908900001</v>
       </c>
       <c r="O17">
         <v>4.8827066874999998</v>
@@ -1459,10 +8508,10 @@
         <v>0.24447221187900001</v>
       </c>
       <c r="M18">
-        <v>4.9510416666700002E-2</v>
+        <v>49.510416666700003</v>
       </c>
       <c r="N18">
-        <v>2.1487155994100002E-3</v>
+        <v>2.14871559941</v>
       </c>
       <c r="O18">
         <v>9.5366168541699992</v>
@@ -1530,10 +8579,10 @@
         <v>0.35046462819000002</v>
       </c>
       <c r="M19">
-        <v>7.3652083333300006E-2</v>
+        <v>73.652083333299998</v>
       </c>
       <c r="N19">
-        <v>1.91690857949E-3</v>
+        <v>1.91690857949</v>
       </c>
       <c r="O19">
         <v>14.1252533333</v>
@@ -1601,10 +8650,10 @@
         <v>0.48956164139699998</v>
       </c>
       <c r="M20">
-        <v>9.7462499999999994E-2</v>
+        <v>97.462500000000006</v>
       </c>
       <c r="N20">
-        <v>2.2019961216699999E-3</v>
+        <v>2.2019961216700001</v>
       </c>
       <c r="O20">
         <v>18.913662916700002</v>
@@ -1672,10 +8721,10 @@
         <v>0.49559576778199999</v>
       </c>
       <c r="M21">
-        <v>0.1213125</v>
+        <v>121.3125</v>
       </c>
       <c r="N21">
-        <v>2.16697092963E-3</v>
+        <v>2.1669709296300002</v>
       </c>
       <c r="O21">
         <v>23.377992729199999</v>
@@ -1743,10 +8792,10 @@
         <v>0.68891168042700002</v>
       </c>
       <c r="M22">
-        <v>0.14525833333300001</v>
+        <v>145.258333333</v>
       </c>
       <c r="N22">
-        <v>1.9612813343799999E-3</v>
+        <v>1.96128133438</v>
       </c>
       <c r="O22">
         <v>27.238749500000001</v>
@@ -1814,10 +8863,10 @@
         <v>5.1102788792400003E-2</v>
       </c>
       <c r="M23">
-        <v>1.75E-4</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N23">
-        <v>2.5421897158400001E-4</v>
+        <v>0.25421897158399998</v>
       </c>
       <c r="O23">
         <v>9.0458354166700006E-2</v>
@@ -1885,10 +8934,10 @@
         <v>5.6526573096899999E-2</v>
       </c>
       <c r="M24">
-        <v>3.8125000000000002E-4</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="N24">
-        <v>4.43894152117E-4</v>
+        <v>0.44389415211700001</v>
       </c>
       <c r="O24">
         <v>0.12733641666699999</v>
@@ -1956,10 +9005,10 @@
         <v>7.4936674173500001E-2</v>
       </c>
       <c r="M25">
-        <v>1.31666666667E-3</v>
+        <v>1.31666666667</v>
       </c>
       <c r="N25">
-        <v>1.20873520161E-3</v>
+        <v>1.2087352016099999</v>
       </c>
       <c r="O25">
         <v>0.26460710416700001</v>
@@ -2027,10 +9076,10 @@
         <v>0.121803575693</v>
       </c>
       <c r="M26">
-        <v>6.7145833333300004E-3</v>
+        <v>6.7145833333300002</v>
       </c>
       <c r="N26">
-        <v>2.7548951126300002E-3</v>
+        <v>2.7548951126299999</v>
       </c>
       <c r="O26">
         <v>1.12835633333</v>
@@ -2098,10 +9147,10 @@
         <v>0.21981646501300001</v>
       </c>
       <c r="M27">
-        <v>2.5958333333299999E-2</v>
+        <v>25.958333333300001</v>
       </c>
       <c r="N27">
-        <v>3.8106095875799998E-3</v>
+        <v>3.8106095875800001</v>
       </c>
       <c r="O27">
         <v>4.0202065625000003</v>
@@ -2169,10 +9218,10 @@
         <v>0.28529469312099998</v>
       </c>
       <c r="M28">
-        <v>4.97791666667E-2</v>
+        <v>49.7791666667</v>
       </c>
       <c r="N28">
-        <v>4.6564667765500002E-3</v>
+        <v>4.6564667765500003</v>
       </c>
       <c r="O28">
         <v>7.5999280000000002</v>
@@ -2240,10 +9289,10 @@
         <v>0.325942427752</v>
       </c>
       <c r="M29">
-        <v>7.4745833333299996E-2</v>
+        <v>74.745833333299998</v>
       </c>
       <c r="N29">
-        <v>3.85733405601E-3</v>
+        <v>3.85733405601</v>
       </c>
       <c r="O29">
         <v>11.2526053125</v>
@@ -2311,10 +9360,10 @@
         <v>0.34177879939</v>
       </c>
       <c r="M30">
-        <v>9.7687499999999997E-2</v>
+        <v>97.6875</v>
       </c>
       <c r="N30">
-        <v>4.4597256195799996E-3</v>
+        <v>4.4597256195800004</v>
       </c>
       <c r="O30">
         <v>14.618183125</v>
@@ -2382,10 +9431,10 @@
         <v>0.53476888111800003</v>
       </c>
       <c r="M31">
-        <v>0.12128124999999999</v>
+        <v>121.28125</v>
       </c>
       <c r="N31">
-        <v>4.20079640078E-3</v>
+        <v>4.2007964007799998</v>
       </c>
       <c r="O31">
         <v>18.6752571667</v>
@@ -2453,10 +9502,10 @@
         <v>5.3823803519199999E-2</v>
       </c>
       <c r="M32">
-        <v>1.6041666666700001E-4</v>
+        <v>0.160416666667</v>
       </c>
       <c r="N32">
-        <v>1.8265842400300001E-4</v>
+        <v>0.182658424003</v>
       </c>
       <c r="O32">
         <v>9.3166729166700005E-2</v>
@@ -2524,10 +9573,10 @@
         <v>6.7678540199400006E-2</v>
       </c>
       <c r="M33">
-        <v>4.8958333333300001E-4</v>
+        <v>0.48958333333300003</v>
       </c>
       <c r="N33">
-        <v>6.3053108126799996E-4</v>
+        <v>0.63053108126799995</v>
       </c>
       <c r="O33">
         <v>0.131245729167</v>
@@ -2595,10 +9644,10 @@
         <v>6.21373003263E-2</v>
       </c>
       <c r="M34">
-        <v>1.3374999999999999E-3</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="N34">
-        <v>1.1764134748699999E-3</v>
+        <v>1.1764134748699999</v>
       </c>
       <c r="O34">
         <v>0.26929416666700001</v>
@@ -2666,10 +9715,10 @@
         <v>0.12336820982</v>
       </c>
       <c r="M35">
-        <v>4.4541666666700003E-3</v>
+        <v>4.4541666666699999</v>
       </c>
       <c r="N35">
-        <v>3.3094051500600001E-3</v>
+        <v>3.3094051500599999</v>
       </c>
       <c r="O35">
         <v>0.63752081250000003</v>
@@ -2737,10 +9786,10 @@
         <v>0.20839872769500001</v>
       </c>
       <c r="M36">
-        <v>9.3895833333300007E-3</v>
+        <v>9.3895833333300001</v>
       </c>
       <c r="N36">
-        <v>7.3772631155399997E-3</v>
+        <v>7.3772631155399999</v>
       </c>
       <c r="O36">
         <v>1.37670097917</v>
@@ -2808,10 +9857,10 @@
         <v>0.29902547582099998</v>
       </c>
       <c r="M37">
-        <v>1.5793749999999999E-2</v>
+        <v>15.793749999999999</v>
       </c>
       <c r="N37">
-        <v>7.3260533365100003E-3</v>
+        <v>7.3260533365100002</v>
       </c>
       <c r="O37">
         <v>2.2402345208300001</v>
@@ -2879,10 +9928,10 @@
         <v>0.21877352276699999</v>
       </c>
       <c r="M38">
-        <v>2.91854166667E-2</v>
+        <v>29.1854166667</v>
       </c>
       <c r="N38">
-        <v>8.0551891072900006E-3</v>
+        <v>8.0551891072899995</v>
       </c>
       <c r="O38">
         <v>3.7709960625000001</v>
@@ -2950,10 +9999,10 @@
         <v>0.31367901675499998</v>
       </c>
       <c r="M39">
-        <v>5.08333333333E-2</v>
+        <v>50.833333333299997</v>
       </c>
       <c r="N39">
-        <v>9.3512862296599997E-3</v>
+        <v>9.3512862296599994</v>
       </c>
       <c r="O39">
         <v>6.4941325624999999</v>
@@ -3021,10 +10070,10 @@
         <v>0.28347127179300002</v>
       </c>
       <c r="M40">
-        <v>7.4489583333299997E-2</v>
+        <v>74.489583333300004</v>
       </c>
       <c r="N40">
-        <v>8.9418870720500004E-3</v>
+        <v>8.9418870720499992</v>
       </c>
       <c r="O40">
         <v>9.5010216041700009</v>
@@ -3052,9 +10101,69 @@
       </c>
       <c r="X40">
         <v>4.6841365810299997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f>D32*6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" ref="D46:D57" si="0">D33*6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/processing/final/throughput_writes/throughput_writes.xlsx
+++ b/processing/final/throughput_writes/throughput_writes.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37320" yWindow="440" windowWidth="34720" windowHeight="20100" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="440" windowWidth="34720" windowHeight="20100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1006,11 +1006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46556656"/>
-        <c:axId val="-308718576"/>
+        <c:axId val="1387842864"/>
+        <c:axId val="1387847248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46556656"/>
+        <c:axId val="1387842864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,12 +1127,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308718576"/>
+        <c:crossAx val="1387847248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-308718576"/>
+        <c:axId val="1387847248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46556656"/>
+        <c:crossAx val="1387842864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2177,11 +2177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50240320"/>
-        <c:axId val="121304976"/>
+        <c:axId val="1387886704"/>
+        <c:axId val="1387890736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50240320"/>
+        <c:axId val="1387886704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,12 +2298,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121304976"/>
+        <c:crossAx val="1387890736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121304976"/>
+        <c:axId val="1387890736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50240320"/>
+        <c:crossAx val="1387886704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3348,11 +3348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46599360"/>
-        <c:axId val="90998384"/>
+        <c:axId val="1387927264"/>
+        <c:axId val="1387931296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46599360"/>
+        <c:axId val="1387927264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,12 +3469,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90998384"/>
+        <c:crossAx val="1387931296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90998384"/>
+        <c:axId val="1387931296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3587,7 +3587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46599360"/>
+        <c:crossAx val="1387927264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4520,11 +4520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120763184"/>
-        <c:axId val="90645360"/>
+        <c:axId val="1387971168"/>
+        <c:axId val="1387975200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120763184"/>
+        <c:axId val="1387971168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,12 +4641,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90645360"/>
+        <c:crossAx val="1387975200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90645360"/>
+        <c:axId val="1387975200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4764,7 +4764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120763184"/>
+        <c:crossAx val="1387971168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7465,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z22" workbookViewId="0">
-      <selection activeCell="AR55" sqref="AR55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10116,7 +10116,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D46">
-        <f t="shared" ref="D46:D57" si="0">D33*6</f>
+        <f t="shared" ref="D46:D53" si="0">D33*6</f>
         <v>24</v>
       </c>
     </row>
